--- a/output/M_30553981000165.xlsx
+++ b/output/M_30553981000165.xlsx
@@ -702,10 +702,10 @@
         <v>44165</v>
       </c>
       <c r="B29">
-        <v>0.7126495799999999</v>
+        <v>0.72939953</v>
       </c>
       <c r="C29">
-        <v>0.007325691352674024</v>
+        <v>0.01717747607320774</v>
       </c>
     </row>
   </sheetData>

--- a/output/M_30553981000165.xlsx
+++ b/output/M_30553981000165.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>M SQUARE GLOBAL EQUITY MANAGERS FI EM COTAS DE FI MULTIMERCADO INVESTIMENTO NO EXTERIOR</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,326 +383,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43343</v>
       </c>
       <c r="B2">
-        <v>0.06737068999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43373</v>
       </c>
       <c r="B3">
-        <v>0.06207965999999998</v>
-      </c>
-      <c r="C3">
         <v>-0.004957068851122348</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43404</v>
       </c>
       <c r="B4">
-        <v>-0.09932951999999995</v>
-      </c>
-      <c r="C4">
         <v>-0.1519746456682919</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43434</v>
       </c>
       <c r="B5">
-        <v>-0.04063952000000004</v>
-      </c>
-      <c r="C5">
         <v>0.06516256644716489</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43465</v>
       </c>
       <c r="B6">
-        <v>-0.13010425</v>
-      </c>
-      <c r="C6">
         <v>-0.09325455015616235</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43496</v>
       </c>
       <c r="B7">
-        <v>-0.10490628</v>
-      </c>
-      <c r="C7">
         <v>0.02896665491238459</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43524</v>
       </c>
       <c r="B8">
-        <v>-0.05087226</v>
-      </c>
-      <c r="C8">
         <v>0.06036688538044932</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43555</v>
       </c>
       <c r="B9">
-        <v>-0.004885420000000029</v>
-      </c>
-      <c r="C9">
         <v>0.04845168680877454</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43585</v>
       </c>
       <c r="B10">
-        <v>0.05572569999999999</v>
-      </c>
-      <c r="C10">
         <v>0.06090868450545672</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43616</v>
       </c>
       <c r="B11">
-        <v>-0.006452020000000003</v>
-      </c>
-      <c r="C11">
         <v>-0.05889571505174118</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43646</v>
       </c>
       <c r="B12">
-        <v>0.03018422999999992</v>
-      </c>
-      <c r="C12">
         <v>0.03687416283610179</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43677</v>
       </c>
       <c r="B13">
-        <v>0.02694993999999995</v>
-      </c>
-      <c r="C13">
         <v>-0.003139525830248791</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43708</v>
       </c>
       <c r="B14">
-        <v>0.09581204999999993</v>
-      </c>
-      <c r="C14">
         <v>0.06705498225161777</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43738</v>
       </c>
       <c r="B15">
-        <v>0.09154963999999999</v>
-      </c>
-      <c r="C15">
         <v>-0.003889727257516462</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43769</v>
       </c>
       <c r="B16">
-        <v>0.08788185000000004</v>
-      </c>
-      <c r="C16">
         <v>-0.003360167843580619</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43799</v>
       </c>
       <c r="B17">
-        <v>0.1786132899999999</v>
-      </c>
-      <c r="C17">
         <v>0.08340192457480544</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43830</v>
       </c>
       <c r="B18">
-        <v>0.1502955100000001</v>
-      </c>
-      <c r="C18">
         <v>-0.02402635388576002</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43861</v>
       </c>
       <c r="B19">
-        <v>0.2343298300000001</v>
-      </c>
-      <c r="C19">
         <v>0.07305454926099819</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43890</v>
       </c>
       <c r="B20">
-        <v>0.1919754199999999</v>
-      </c>
-      <c r="C20">
         <v>-0.03431368907287946</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43921</v>
       </c>
       <c r="B21">
-        <v>0.17859672</v>
-      </c>
-      <c r="C21">
         <v>-0.01122397305810208</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43951</v>
       </c>
       <c r="B22">
-        <v>0.3678287499999999</v>
-      </c>
-      <c r="C22">
         <v>0.160557064845726</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43982</v>
       </c>
       <c r="B23">
-        <v>0.42019001</v>
-      </c>
-      <c r="C23">
         <v>0.03828056692038384</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44012</v>
       </c>
       <c r="B24">
-        <v>0.4969541200000001</v>
-      </c>
-      <c r="C24">
         <v>0.05405199970389885</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44043</v>
       </c>
       <c r="B25">
-        <v>0.53578177</v>
-      </c>
-      <c r="C25">
         <v>0.0259377688876663</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44074</v>
       </c>
       <c r="B26">
-        <v>0.7063744000000001</v>
-      </c>
-      <c r="C26">
         <v>0.1110786918638837</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
       <c r="B27">
-        <v>0.70881712</v>
-      </c>
-      <c r="C27">
         <v>0.001431526398895766</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44135</v>
       </c>
       <c r="B28">
-        <v>0.70019448</v>
-      </c>
-      <c r="C28">
         <v>-0.005045970045056691</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44165</v>
       </c>
       <c r="B29">
-        <v>0.72939953</v>
-      </c>
-      <c r="C29">
-        <v>0.01717747607320774</v>
+        <v>0.02373555524071569</v>
       </c>
     </row>
   </sheetData>
